--- a/biology/Zoologie/Camelidae/Camelidae.xlsx
+++ b/biology/Zoologie/Camelidae/Camelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camélidés
 Les camélidés sont une des familles de l'ordre des mammifères artiodactyles. Les camélidés disposent de 74 chromosomes. Les espèces vivantes du genre sont le dromadaire et le chameau de Bactriane, en Afrique et en Asie, et le lama, l'alpaga, le guanaco et la vigogne en Amérique.
@@ -512,9 +524,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le substantif masculin pluriel camélidés est dérivé du radical du latin camelus (« chameau »)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le substantif masculin pluriel camélidés est dérivé du radical du latin camelus (« chameau »),.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Camélidés sont des mammifères artiodactyles d'origine nord-américaine, mais ils ont disparu de cette partie du continent alors qu'ils se répandaient en Amérique du Sud, en Asie, puis en Afrique, continents où ils ont survécu pour donner naissance aux espèces modernes.
 Il existe également en Australie des dromadaires importés à l'origine comme animaux de bât et vivant aujourd'hui à l'état sauvage.
@@ -575,9 +591,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement à ce qui est parfois affirmé, les globules rouges des camélidés, comme ceux de tous les autres mammifères, n'ont pas de noyau[3]. En revanche, leur forme petite et ovale leur permet de se déplacer dans un sang épais en cas de déshydratation. De même, ils sont capables lors d'un apport d'eau soudain et important de gonfler fortement, sans se rompre sous l'effet de la pression osmotique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à ce qui est parfois affirmé, les globules rouges des camélidés, comme ceux de tous les autres mammifères, n'ont pas de noyau. En revanche, leur forme petite et ovale leur permet de se déplacer dans un sang épais en cas de déshydratation. De même, ils sont capables lors d'un apport d'eau soudain et important de gonfler fortement, sans se rompre sous l'effet de la pression osmotique.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Les camélidés et les humains</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les humains préhistoriques chassaient les camélidés pour leur chair, et certains paléontologues les suspectent d'avoir exterminé ces animaux en Amérique du Nord, au cours de l'Holocène. Cette viande se consomme toujours et sa conservation se fait souvent par séchage.
 Par contre, les Andins d'Amérique du Sud, les Asiatiques et les Africains ont domestiqué avec succès les camélidés, animaux peu exigeants et adaptables à des conditions climatiques difficiles (haute montagne dans le premier cas, désert dans le second), créant des races parfois très distinctes de leurs ancêtres sauvages (comme l'Alpaga à la laine épaisse).
@@ -640,9 +660,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ce taxon était inclus parmi les Tylopodes.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon était inclus parmi les Tylopodes.
 La famille des camélidés comprend selon Mammal Species of the World 3 genres et 4 espèces vivantes :
 genre Camelus
 Camelus dromedarius (dromadaire)
@@ -662,8 +684,43 @@
 			Vicugna vicugna
 			Vicugna pacos
 			Reconstitution d'un Aepycamelus (espèce disparue)
-Quelques espèces éteintes
-Selon Paleobiology Database                   (2 jan 2010)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camelidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camelidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quelques espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (2 jan 2010) :
 genre Aepycamelus (syn. Alticamelus, Homocamelus)
 genre Aguascalientia
 genre Alforjas
@@ -719,33 +776,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Camelidae</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Camelidae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Phylogénie au sein des cétartiodactyles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[6],[7],[8] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
 </t>
         </is>
       </c>
